--- a/www.eia.gov/electricity/monthly/xls/table_4_06_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_06_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
-    <t>Table 4.6.B. Receipts of Coal Delivered for Electricity Generation by State, (Year-to-Date) October 2016 and 2015</t>
+    <t>Table 4.6.B. Receipts of Coal Delivered for Electricity Generation by State, (Year-to-Date) November 2016 and 2015</t>
   </si>
   <si>
     <t>(Thousand Tons)</t>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1357,25 +1357,25 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>1070</v>
+        <v>1162</v>
       </c>
       <c r="C6" s="13">
-        <v>1674</v>
+        <v>1929</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.36</v>
+        <v>-0.4</v>
       </c>
       <c r="E6" s="13">
         <v>177</v>
       </c>
       <c r="F6" s="13">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="G6" s="13">
-        <v>881</v>
+        <v>971</v>
       </c>
       <c r="H6" s="13">
-        <v>1096</v>
+        <v>1244</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1433,13 +1433,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C8" s="16">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.23</v>
+        <v>-0.21</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H8" s="16">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" s="16">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1471,13 +1471,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>739</v>
+        <v>824</v>
       </c>
       <c r="C9" s="16">
-        <v>781</v>
+        <v>925</v>
       </c>
       <c r="D9" s="17">
-        <v>-5.3999999999999999E-2</v>
+        <v>-0.11</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>739</v>
+        <v>824</v>
       </c>
       <c r="H9" s="16">
-        <v>781</v>
+        <v>925</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1512,16 +1512,16 @@
         <v>177</v>
       </c>
       <c r="C10" s="16">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="D10" s="17">
-        <v>-0.68</v>
+        <v>-0.73</v>
       </c>
       <c r="E10" s="16">
         <v>177</v>
       </c>
       <c r="F10" s="16">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -1623,13 +1623,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>16471</v>
+        <v>17999</v>
       </c>
       <c r="C13" s="13">
-        <v>27309</v>
+        <v>29606</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>16144</v>
+        <v>17648</v>
       </c>
       <c r="H13" s="13">
-        <v>26581</v>
+        <v>28804</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="L13" s="13">
-        <v>728</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1661,13 +1661,13 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="C14" s="16">
-        <v>732</v>
+        <v>785</v>
       </c>
       <c r="D14" s="17">
-        <v>-0.28000000000000003</v>
+        <v>-0.26</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="H14" s="16">
-        <v>732</v>
+        <v>785</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -1699,13 +1699,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="C15" s="16">
-        <v>799</v>
+        <v>953</v>
       </c>
       <c r="D15" s="17">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="H15" s="16">
-        <v>539</v>
+        <v>661</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="L15" s="16">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>15477</v>
+        <v>16884</v>
       </c>
       <c r="C16" s="16">
-        <v>25778</v>
+        <v>27868</v>
       </c>
       <c r="D16" s="17">
-        <v>-0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1752,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>15386</v>
+        <v>16793</v>
       </c>
       <c r="H16" s="16">
-        <v>25310</v>
+        <v>27359</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>91</v>
       </c>
       <c r="L16" s="16">
-        <v>469</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,25 +1775,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>112887</v>
+        <v>123959</v>
       </c>
       <c r="C17" s="13">
-        <v>147085</v>
+        <v>160832</v>
       </c>
       <c r="D17" s="14">
         <v>-0.23</v>
       </c>
       <c r="E17" s="13">
-        <v>67103</v>
+        <v>73854</v>
       </c>
       <c r="F17" s="13">
-        <v>84576</v>
+        <v>92812</v>
       </c>
       <c r="G17" s="13">
-        <v>43844</v>
+        <v>47979</v>
       </c>
       <c r="H17" s="13">
-        <v>59995</v>
+        <v>65267</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1802,10 +1802,10 @@
         <v>27</v>
       </c>
       <c r="K17" s="13">
-        <v>1940</v>
+        <v>2126</v>
       </c>
       <c r="L17" s="13">
-        <v>2487</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1813,25 +1813,25 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>31790</v>
+        <v>35082</v>
       </c>
       <c r="C18" s="16">
-        <v>46362</v>
+        <v>50924</v>
       </c>
       <c r="D18" s="17">
         <v>-0.31</v>
       </c>
       <c r="E18" s="16">
-        <v>5750</v>
+        <v>6306</v>
       </c>
       <c r="F18" s="16">
-        <v>6993</v>
+        <v>7877</v>
       </c>
       <c r="G18" s="16">
-        <v>24611</v>
+        <v>27201</v>
       </c>
       <c r="H18" s="16">
-        <v>37529</v>
+        <v>41020</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="16">
-        <v>1429</v>
+        <v>1576</v>
       </c>
       <c r="L18" s="16">
-        <v>1840</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>24023</v>
+        <v>26341</v>
       </c>
       <c r="C19" s="16">
-        <v>29790</v>
+        <v>32439</v>
       </c>
       <c r="D19" s="17">
         <v>-0.19</v>
       </c>
       <c r="E19" s="16">
-        <v>22500</v>
+        <v>24716</v>
       </c>
       <c r="F19" s="16">
-        <v>27417</v>
+        <v>29817</v>
       </c>
       <c r="G19" s="16">
-        <v>1523</v>
+        <v>1624</v>
       </c>
       <c r="H19" s="16">
-        <v>2373</v>
+        <v>2622</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -1889,25 +1889,25 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>17503</v>
+        <v>19092</v>
       </c>
       <c r="C20" s="16">
-        <v>24781</v>
+        <v>27272</v>
       </c>
       <c r="D20" s="17">
-        <v>-0.28999999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="E20" s="16">
-        <v>17281</v>
+        <v>18852</v>
       </c>
       <c r="F20" s="16">
-        <v>24508</v>
+        <v>26980</v>
       </c>
       <c r="G20" s="16">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H20" s="16">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="I20" s="16">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1927,25 +1927,25 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>24255</v>
+        <v>26271</v>
       </c>
       <c r="C21" s="16">
-        <v>26717</v>
+        <v>28916</v>
       </c>
       <c r="D21" s="17">
-        <v>-9.1999999999999998E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E21" s="16">
-        <v>6605</v>
+        <v>7195</v>
       </c>
       <c r="F21" s="16">
-        <v>6648</v>
+        <v>7311</v>
       </c>
       <c r="G21" s="16">
-        <v>17498</v>
+        <v>18925</v>
       </c>
       <c r="H21" s="16">
-        <v>19868</v>
+        <v>21383</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>152</v>
       </c>
       <c r="L21" s="16">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1965,19 +1965,19 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>15316</v>
+        <v>17173</v>
       </c>
       <c r="C22" s="16">
-        <v>19435</v>
+        <v>21282</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.21</v>
+        <v>-0.19</v>
       </c>
       <c r="E22" s="16">
-        <v>14967</v>
+        <v>16785</v>
       </c>
       <c r="F22" s="16">
-        <v>19010</v>
+        <v>20828</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="L22" s="16">
-        <v>425</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2003,19 +2003,19 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>95757</v>
+        <v>105510</v>
       </c>
       <c r="C23" s="13">
-        <v>117355</v>
+        <v>127958</v>
       </c>
       <c r="D23" s="14">
         <v>-0.18</v>
       </c>
       <c r="E23" s="13">
-        <v>94671</v>
+        <v>104353</v>
       </c>
       <c r="F23" s="13">
-        <v>114470</v>
+        <v>124799</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J23" s="13">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K23" s="13">
-        <v>1049</v>
+        <v>1110</v>
       </c>
       <c r="L23" s="13">
-        <v>2820</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,19 +2041,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>14640</v>
+        <v>15991</v>
       </c>
       <c r="C24" s="16">
-        <v>19211</v>
+        <v>20883</v>
       </c>
       <c r="D24" s="17">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="E24" s="16">
-        <v>13591</v>
+        <v>14881</v>
       </c>
       <c r="F24" s="16">
-        <v>17357</v>
+        <v>18854</v>
       </c>
       <c r="G24" s="16">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="16">
-        <v>1049</v>
+        <v>1110</v>
       </c>
       <c r="L24" s="16">
-        <v>1854</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2079,19 +2079,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>11883</v>
+        <v>13201</v>
       </c>
       <c r="C25" s="16">
-        <v>15282</v>
+        <v>16431</v>
       </c>
       <c r="D25" s="17">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="E25" s="16">
-        <v>11883</v>
+        <v>13201</v>
       </c>
       <c r="F25" s="16">
-        <v>15282</v>
+        <v>16431</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2117,19 +2117,19 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>9948</v>
+        <v>11343</v>
       </c>
       <c r="C26" s="16">
-        <v>14659</v>
+        <v>16138</v>
       </c>
       <c r="D26" s="17">
-        <v>-0.32</v>
+        <v>-0.3</v>
       </c>
       <c r="E26" s="16">
-        <v>9948</v>
+        <v>11343</v>
       </c>
       <c r="F26" s="16">
-        <v>14339</v>
+        <v>15787</v>
       </c>
       <c r="G26" s="16">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="16">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2155,19 +2155,19 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>29368</v>
+        <v>32091</v>
       </c>
       <c r="C27" s="16">
-        <v>34820</v>
+        <v>37951</v>
       </c>
       <c r="D27" s="17">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="E27" s="16">
-        <v>29331</v>
+        <v>32044</v>
       </c>
       <c r="F27" s="16">
-        <v>34769</v>
+        <v>37892</v>
       </c>
       <c r="G27" s="16">
         <v>0</v>
@@ -2176,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="16">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J27" s="16">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
@@ -2193,19 +2193,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>10562</v>
+        <v>11578</v>
       </c>
       <c r="C28" s="16">
-        <v>12757</v>
+        <v>13920</v>
       </c>
       <c r="D28" s="17">
         <v>-0.17</v>
       </c>
       <c r="E28" s="16">
-        <v>10562</v>
+        <v>11578</v>
       </c>
       <c r="F28" s="16">
-        <v>12096</v>
+        <v>13199</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="16">
-        <v>661</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2231,19 +2231,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>18274</v>
+        <v>20068</v>
       </c>
       <c r="C29" s="16">
-        <v>19793</v>
+        <v>21673</v>
       </c>
       <c r="D29" s="17">
-        <v>-7.6999999999999999E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="E29" s="16">
-        <v>18274</v>
+        <v>20068</v>
       </c>
       <c r="F29" s="16">
-        <v>19793</v>
+        <v>21673</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2269,19 +2269,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>1082</v>
+        <v>1238</v>
       </c>
       <c r="C30" s="16">
-        <v>835</v>
+        <v>962</v>
       </c>
       <c r="D30" s="17">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E30" s="16">
-        <v>1082</v>
+        <v>1238</v>
       </c>
       <c r="F30" s="16">
-        <v>835</v>
+        <v>962</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2307,25 +2307,25 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>78544</v>
+        <v>86575</v>
       </c>
       <c r="C31" s="13">
-        <v>95330</v>
+        <v>103420</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="E31" s="13">
-        <v>68484</v>
+        <v>75346</v>
       </c>
       <c r="F31" s="13">
-        <v>82414</v>
+        <v>89472</v>
       </c>
       <c r="G31" s="13">
-        <v>9351</v>
+        <v>10463</v>
       </c>
       <c r="H31" s="13">
-        <v>11265</v>
+        <v>12133</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="L31" s="13">
-        <v>1652</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2345,13 +2345,13 @@
         <v>40</v>
       </c>
       <c r="B32" s="16">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C32" s="16">
         <v>152</v>
       </c>
       <c r="D32" s="17">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H32" s="16">
         <v>152</v>
@@ -2421,25 +2421,25 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>12806</v>
+        <v>13975</v>
       </c>
       <c r="C34" s="16">
-        <v>16607</v>
+        <v>18049</v>
       </c>
       <c r="D34" s="17">
         <v>-0.23</v>
       </c>
       <c r="E34" s="16">
-        <v>12516</v>
+        <v>13685</v>
       </c>
       <c r="F34" s="16">
-        <v>15867</v>
+        <v>17268</v>
       </c>
       <c r="G34" s="16">
         <v>290</v>
       </c>
       <c r="H34" s="16">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="16">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2459,19 +2459,19 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>14335</v>
+        <v>15878</v>
       </c>
       <c r="C35" s="16">
-        <v>17194</v>
+        <v>18727</v>
       </c>
       <c r="D35" s="17">
-        <v>-0.17</v>
+        <v>-0.15</v>
       </c>
       <c r="E35" s="16">
-        <v>14219</v>
+        <v>15752</v>
       </c>
       <c r="F35" s="16">
-        <v>17029</v>
+        <v>18542</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -2486,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L35" s="16">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2497,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>4266</v>
+        <v>4899</v>
       </c>
       <c r="C36" s="16">
-        <v>5626</v>
+        <v>6031</v>
       </c>
       <c r="D36" s="17">
-        <v>-0.24</v>
+        <v>-0.19</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>4077</v>
+        <v>4692</v>
       </c>
       <c r="H36" s="16">
-        <v>5400</v>
+        <v>5779</v>
       </c>
       <c r="I36" s="16">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="16">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L36" s="16">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2535,25 +2535,25 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>9559</v>
+        <v>10764</v>
       </c>
       <c r="C37" s="16">
-        <v>13949</v>
+        <v>14940</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.31</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E37" s="16">
-        <v>9559</v>
+        <v>10764</v>
       </c>
       <c r="F37" s="16">
-        <v>13422</v>
+        <v>14375</v>
       </c>
       <c r="G37" s="16">
         <v>0</v>
       </c>
       <c r="H37" s="16">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="I37" s="16">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="16">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2573,19 +2573,19 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>6723</v>
+        <v>7358</v>
       </c>
       <c r="C38" s="16">
-        <v>9651</v>
+        <v>10318</v>
       </c>
       <c r="D38" s="17">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E38" s="16">
-        <v>6641</v>
+        <v>7273</v>
       </c>
       <c r="F38" s="16">
-        <v>9522</v>
+        <v>10173</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L38" s="16">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2611,25 +2611,25 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>6572</v>
+        <v>7111</v>
       </c>
       <c r="C39" s="16">
-        <v>6686</v>
+        <v>7170</v>
       </c>
       <c r="D39" s="17">
-        <v>-1.7000000000000001E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="E39" s="16">
-        <v>5943</v>
+        <v>6390</v>
       </c>
       <c r="F39" s="16">
-        <v>5648</v>
+        <v>6050</v>
       </c>
       <c r="G39" s="16">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="H39" s="16">
-        <v>748</v>
+        <v>805</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L39" s="16">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2649,25 +2649,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>24084</v>
+        <v>26376</v>
       </c>
       <c r="C40" s="16">
-        <v>25466</v>
+        <v>28032</v>
       </c>
       <c r="D40" s="17">
-        <v>-5.3999999999999999E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E40" s="16">
-        <v>19605</v>
+        <v>21482</v>
       </c>
       <c r="F40" s="16">
-        <v>20926</v>
+        <v>23064</v>
       </c>
       <c r="G40" s="16">
-        <v>4410</v>
+        <v>4825</v>
       </c>
       <c r="H40" s="16">
-        <v>4219</v>
+        <v>4612</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>69</v>
       </c>
       <c r="L40" s="16">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2687,25 +2687,25 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>55809</v>
+        <v>61847</v>
       </c>
       <c r="C41" s="13">
-        <v>65540</v>
+        <v>71775</v>
       </c>
       <c r="D41" s="14">
-        <v>-0.15</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E41" s="13">
-        <v>52241</v>
+        <v>57946</v>
       </c>
       <c r="F41" s="13">
-        <v>61632</v>
+        <v>67456</v>
       </c>
       <c r="G41" s="13">
-        <v>2546</v>
+        <v>2807</v>
       </c>
       <c r="H41" s="13">
-        <v>2692</v>
+        <v>2995</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>1022</v>
+        <v>1094</v>
       </c>
       <c r="L41" s="13">
-        <v>1216</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,19 +2725,19 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>13617</v>
+        <v>14973</v>
       </c>
       <c r="C42" s="16">
-        <v>17165</v>
+        <v>18845</v>
       </c>
       <c r="D42" s="17">
         <v>-0.21</v>
       </c>
       <c r="E42" s="16">
-        <v>13617</v>
+        <v>14973</v>
       </c>
       <c r="F42" s="16">
-        <v>17165</v>
+        <v>18845</v>
       </c>
       <c r="G42" s="16">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>30781</v>
+        <v>34140</v>
       </c>
       <c r="C43" s="16">
-        <v>34558</v>
+        <v>38021</v>
       </c>
       <c r="D43" s="17">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="E43" s="16">
-        <v>30781</v>
+        <v>34140</v>
       </c>
       <c r="F43" s="16">
-        <v>34558</v>
+        <v>38021</v>
       </c>
       <c r="G43" s="16">
         <v>0</v>
@@ -2801,25 +2801,25 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>3576</v>
+        <v>4027</v>
       </c>
       <c r="C44" s="16">
-        <v>4444</v>
+        <v>4890</v>
       </c>
       <c r="D44" s="17">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="E44" s="16">
-        <v>1030</v>
+        <v>1220</v>
       </c>
       <c r="F44" s="16">
-        <v>1752</v>
+        <v>1894</v>
       </c>
       <c r="G44" s="16">
-        <v>2546</v>
+        <v>2807</v>
       </c>
       <c r="H44" s="16">
-        <v>2692</v>
+        <v>2995</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>7836</v>
+        <v>8707</v>
       </c>
       <c r="C45" s="16">
-        <v>9373</v>
+        <v>10019</v>
       </c>
       <c r="D45" s="17">
-        <v>-0.16</v>
+        <v>-0.13</v>
       </c>
       <c r="E45" s="16">
-        <v>6814</v>
+        <v>7613</v>
       </c>
       <c r="F45" s="16">
-        <v>8157</v>
+        <v>8695</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2866,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="16">
-        <v>1022</v>
+        <v>1094</v>
       </c>
       <c r="L45" s="16">
-        <v>1216</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2877,25 +2877,25 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>87397</v>
+        <v>98440</v>
       </c>
       <c r="C46" s="13">
-        <v>114585</v>
+        <v>125907</v>
       </c>
       <c r="D46" s="14">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="E46" s="13">
-        <v>42677</v>
+        <v>47669</v>
       </c>
       <c r="F46" s="13">
-        <v>59554</v>
+        <v>65517</v>
       </c>
       <c r="G46" s="13">
-        <v>44668</v>
+        <v>50714</v>
       </c>
       <c r="H46" s="13">
-        <v>54529</v>
+        <v>59828</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L46" s="13">
-        <v>503</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2915,25 +2915,25 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>10180</v>
+        <v>11378</v>
       </c>
       <c r="C47" s="16">
-        <v>12923</v>
+        <v>13917</v>
       </c>
       <c r="D47" s="17">
-        <v>-0.21</v>
+        <v>-0.18</v>
       </c>
       <c r="E47" s="16">
-        <v>8547</v>
+        <v>9525</v>
       </c>
       <c r="F47" s="16">
-        <v>10829</v>
+        <v>11613</v>
       </c>
       <c r="G47" s="16">
-        <v>1582</v>
+        <v>1797</v>
       </c>
       <c r="H47" s="16">
-        <v>2031</v>
+        <v>2228</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L47" s="16">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2953,25 +2953,25 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>5480</v>
+        <v>6179</v>
       </c>
       <c r="C48" s="16">
-        <v>9054</v>
+        <v>9969</v>
       </c>
       <c r="D48" s="17">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="E48" s="16">
-        <v>4157</v>
+        <v>4626</v>
       </c>
       <c r="F48" s="16">
-        <v>5196</v>
+        <v>5832</v>
       </c>
       <c r="G48" s="16">
-        <v>1323</v>
+        <v>1554</v>
       </c>
       <c r="H48" s="16">
-        <v>3858</v>
+        <v>4137</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -2991,25 +2991,25 @@
         <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>8797</v>
+        <v>9629</v>
       </c>
       <c r="C49" s="16">
-        <v>15550</v>
+        <v>17247</v>
       </c>
       <c r="D49" s="17">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="E49" s="16">
-        <v>7897</v>
+        <v>8640</v>
       </c>
       <c r="F49" s="16">
-        <v>13965</v>
+        <v>15517</v>
       </c>
       <c r="G49" s="16">
-        <v>900</v>
+        <v>989</v>
       </c>
       <c r="H49" s="16">
-        <v>1146</v>
+        <v>1244</v>
       </c>
       <c r="I49" s="16">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="16">
-        <v>439</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3029,25 +3029,25 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>62940</v>
+        <v>71254</v>
       </c>
       <c r="C50" s="16">
-        <v>77058</v>
+        <v>84774</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="E50" s="16">
-        <v>22077</v>
+        <v>24879</v>
       </c>
       <c r="F50" s="16">
-        <v>29563</v>
+        <v>32555</v>
       </c>
       <c r="G50" s="16">
-        <v>40862</v>
+        <v>46374</v>
       </c>
       <c r="H50" s="16">
-        <v>47495</v>
+        <v>52219</v>
       </c>
       <c r="I50" s="16">
         <v>0</v>
@@ -3067,25 +3067,25 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>72688</v>
+        <v>80806</v>
       </c>
       <c r="C51" s="13">
-        <v>89097</v>
+        <v>97229</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="E51" s="13">
-        <v>65064</v>
+        <v>72339</v>
       </c>
       <c r="F51" s="13">
-        <v>79599</v>
+        <v>86762</v>
       </c>
       <c r="G51" s="13">
-        <v>7393</v>
+        <v>8236</v>
       </c>
       <c r="H51" s="13">
-        <v>9271</v>
+        <v>10241</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3105,19 +3105,19 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>12694</v>
+        <v>14066</v>
       </c>
       <c r="C52" s="16">
-        <v>18248</v>
+        <v>20185</v>
       </c>
       <c r="D52" s="17">
         <v>-0.3</v>
       </c>
       <c r="E52" s="16">
-        <v>12694</v>
+        <v>14066</v>
       </c>
       <c r="F52" s="16">
-        <v>18248</v>
+        <v>20185</v>
       </c>
       <c r="G52" s="16">
         <v>0</v>
@@ -3143,19 +3143,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="16">
-        <v>13075</v>
+        <v>14591</v>
       </c>
       <c r="C53" s="16">
-        <v>15558</v>
+        <v>16927</v>
       </c>
       <c r="D53" s="17">
-        <v>-0.16</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E53" s="16">
-        <v>13075</v>
+        <v>14591</v>
       </c>
       <c r="F53" s="16">
-        <v>15558</v>
+        <v>16927</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -3219,25 +3219,25 @@
         <v>63</v>
       </c>
       <c r="B55" s="16">
-        <v>6980</v>
+        <v>7783</v>
       </c>
       <c r="C55" s="16">
-        <v>8195</v>
+        <v>9079</v>
       </c>
       <c r="D55" s="17">
-        <v>-0.15</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E55" s="16">
         <v>0</v>
       </c>
       <c r="F55" s="16">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G55" s="16">
-        <v>6980</v>
+        <v>7783</v>
       </c>
       <c r="H55" s="16">
-        <v>8015</v>
+        <v>8879</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3257,25 +3257,25 @@
         <v>64</v>
       </c>
       <c r="B56" s="16">
-        <v>835</v>
+        <v>912</v>
       </c>
       <c r="C56" s="16">
-        <v>1146</v>
+        <v>1238</v>
       </c>
       <c r="D56" s="17">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="E56" s="16">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="F56" s="16">
-        <v>723</v>
+        <v>772</v>
       </c>
       <c r="G56" s="16">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="H56" s="16">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3295,19 +3295,19 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>8730</v>
+        <v>9801</v>
       </c>
       <c r="C57" s="16">
-        <v>10200</v>
+        <v>11285</v>
       </c>
       <c r="D57" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.13</v>
       </c>
       <c r="E57" s="16">
-        <v>8730</v>
+        <v>9801</v>
       </c>
       <c r="F57" s="16">
-        <v>10200</v>
+        <v>11285</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3333,25 +3333,25 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>10943</v>
+        <v>12139</v>
       </c>
       <c r="C58" s="16">
-        <v>13415</v>
+        <v>14057</v>
       </c>
       <c r="D58" s="17">
-        <v>-0.18</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="E58" s="16">
-        <v>10712</v>
+        <v>11908</v>
       </c>
       <c r="F58" s="16">
-        <v>12800</v>
+        <v>13424</v>
       </c>
       <c r="G58" s="16">
         <v>0</v>
       </c>
       <c r="H58" s="16">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="I58" s="16">
         <v>0</v>
@@ -3371,25 +3371,25 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>19432</v>
+        <v>21513</v>
       </c>
       <c r="C59" s="16">
-        <v>22336</v>
+        <v>24458</v>
       </c>
       <c r="D59" s="17">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="E59" s="16">
-        <v>19432</v>
+        <v>21513</v>
       </c>
       <c r="F59" s="16">
-        <v>21890</v>
+        <v>23969</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
       </c>
       <c r="H59" s="16">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="I59" s="16">
         <v>0</v>
@@ -3409,25 +3409,25 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>3738</v>
+        <v>4327</v>
       </c>
       <c r="C60" s="13">
-        <v>4548</v>
+        <v>4976</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.18</v>
+        <v>-0.13</v>
       </c>
       <c r="E60" s="13">
-        <v>881</v>
+        <v>951</v>
       </c>
       <c r="F60" s="13">
-        <v>1199</v>
+        <v>1324</v>
       </c>
       <c r="G60" s="13">
-        <v>2320</v>
+        <v>2795</v>
       </c>
       <c r="H60" s="13">
-        <v>2809</v>
+        <v>3035</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="L60" s="13">
-        <v>541</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3447,13 +3447,13 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="C61" s="16">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="D61" s="17">
-        <v>-8.0000000000000002E-3</v>
+        <v>-0.06</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="16">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="L61" s="16">
-        <v>541</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3485,19 +3485,19 @@
         <v>70</v>
       </c>
       <c r="B62" s="16">
-        <v>881</v>
+        <v>951</v>
       </c>
       <c r="C62" s="16">
-        <v>1199</v>
+        <v>1324</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.26</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E62" s="16">
-        <v>881</v>
+        <v>951</v>
       </c>
       <c r="F62" s="16">
-        <v>1199</v>
+        <v>1324</v>
       </c>
       <c r="G62" s="16">
         <v>0</v>
@@ -3523,13 +3523,13 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>2320</v>
+        <v>2795</v>
       </c>
       <c r="C63" s="16">
-        <v>2809</v>
+        <v>3035</v>
       </c>
       <c r="D63" s="17">
-        <v>-0.17</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="E63" s="16">
         <v>0</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="G63" s="16">
-        <v>2320</v>
+        <v>2795</v>
       </c>
       <c r="H63" s="16">
-        <v>2809</v>
+        <v>3035</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3561,25 +3561,25 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>832</v>
+        <v>965</v>
       </c>
       <c r="C64" s="13">
-        <v>580</v>
+        <v>727</v>
       </c>
       <c r="D64" s="14">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="E64" s="13">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F64" s="13">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G64" s="13">
-        <v>663</v>
+        <v>784</v>
       </c>
       <c r="H64" s="13">
-        <v>478</v>
+        <v>599</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3599,19 +3599,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C65" s="16">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D65" s="17">
-        <v>0.65</v>
+        <v>0.41</v>
       </c>
       <c r="E65" s="16">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F65" s="16">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3637,13 +3637,13 @@
         <v>74</v>
       </c>
       <c r="B66" s="16">
-        <v>663</v>
+        <v>784</v>
       </c>
       <c r="C66" s="16">
-        <v>478</v>
+        <v>599</v>
       </c>
       <c r="D66" s="17">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="G66" s="16">
-        <v>663</v>
+        <v>784</v>
       </c>
       <c r="H66" s="16">
-        <v>478</v>
+        <v>599</v>
       </c>
       <c r="I66" s="16">
         <v>0</v>
@@ -3675,37 +3675,37 @@
         <v>75</v>
       </c>
       <c r="B67" s="13">
-        <v>525193</v>
+        <v>581589</v>
       </c>
       <c r="C67" s="13">
-        <v>663103</v>
+        <v>724360</v>
       </c>
       <c r="D67" s="14">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="E67" s="13">
-        <v>391467</v>
+        <v>432816</v>
       </c>
       <c r="F67" s="13">
-        <v>484096</v>
+        <v>528926</v>
       </c>
       <c r="G67" s="13">
-        <v>127810</v>
+        <v>142397</v>
       </c>
       <c r="H67" s="13">
-        <v>168714</v>
+        <v>184146</v>
       </c>
       <c r="I67" s="13">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J67" s="13">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K67" s="13">
-        <v>5878</v>
+        <v>6329</v>
       </c>
       <c r="L67" s="13">
-        <v>10201</v>
+        <v>11188</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="174.95" customHeight="1" x14ac:dyDescent="0.25">
